--- a/biology/Botanique/Florilège_de_Banks/Florilège_de_Banks.xlsx
+++ b/biology/Botanique/Florilège_de_Banks/Florilège_de_Banks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Floril%C3%A8ge_de_Banks</t>
+          <t>Florilège_de_Banks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Florilège de Banks (Banks' Florilegium) est une collection de gravures sur plaques de cuivre de plantes recueillies par Sir Joseph Banks et Daniel Solander alors qu'ils accompagnaient le capitaine James Cook dans son voyage autour du monde de 1768 à 1771. Il récoltèrent des plantes à Madère, au Brésil, en Terre de Feu, dans les îles de la Société, en Nouvelle-Zélande, en Australie et à Java.
 Les spécimens de Banks et Solander furent étudiés à bord de l'Endeavour par Sydney Parkinson. Il dessina chaque espèce et pris note de leurs couleurs, et pour certaines espèces il réalisa des illustrations à l'aquarelle. À son retour à Londres, Banks engagea cinq artistes pour créer des aquarelles à partir de tous les dessins de Parkinson. Puis entre 1771 et 1784, il engagea 18 graveurs pour réaliser des gravures au trait sur plaque de cuivre d'après les 743 aquarelles achevées. Le Florilège ne fut pas imprimé du vivant de Banks et il légua les plaques au British Museum.
